--- a/React/rt01.docs/React정리-20200808.xlsx
+++ b/React/rt01.docs/React정리-20200808.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\TIS20200628\class\React\rt01.docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F1A601-D8F8-413B-AC08-6ACBECF92AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18315" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSX" sheetId="4" r:id="rId1"/>
@@ -443,7 +449,7 @@
     componentWillUnmount() {  /* 언마운트 완료 후에 */  }
     handler(e){  /* 이벤트 핸들러는 constructor(생성자)에서 this bind 처리 */  }
     render() {
-        return(  &lt;div onClick="handler"&gt;{this.props.name}, {this.state.name}&lt;/div&gt;  );
+        return(  &lt;div onClick={this.handler}&gt;{this.props.name}, {this.state.name}&lt;/div&gt;  );
     }
 };
 ReactDOM.render(  &lt;Comp name="Batman"&gt;&lt;/Comp&gt;, document.getElementById("app")  ); </t>
@@ -453,8 +459,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +684,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -725,7 +734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,9 +767,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,6 +819,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -968,20 +1011,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
@@ -992,35 +1035,35 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>70</v>
       </c>
@@ -1034,19 +1077,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
@@ -1054,7 +1097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3">
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
@@ -1062,7 +1105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1070,7 +1113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1078,7 +1121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1094,7 +1137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3">
       <c r="B8" s="10" t="s">
         <v>46</v>
       </c>
@@ -1102,7 +1145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3">
       <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
@@ -1110,7 +1153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3">
       <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1118,7 +1161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1126,7 +1169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1141,21 +1184,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="60.625" customWidth="1"/>
     <col min="4" max="4" width="105.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1166,7 +1209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="409.5">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1175,7 +1218,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="181.5">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1184,7 +1227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="99">
       <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
@@ -1195,7 +1238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="132">
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="6" t="s">
@@ -1213,21 +1256,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="1"/>
       <c r="C2" s="7" t="s">
         <v>23</v>
@@ -1239,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="82.5">
       <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1251,7 +1294,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="66">
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1263,7 +1306,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="99">
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1275,7 +1318,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="33">
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1285,7 +1328,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="71.25" customHeight="1">
       <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
@@ -1301,12 +1344,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,21 +1357,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="52.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1337,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="33">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
@@ -1370,14 +1413,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="49.5">
       <c r="A5" s="16"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="231" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="231">
       <c r="A6" s="17"/>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -1386,7 +1429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1395,7 +1438,7 @@
       </c>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="82.5">
       <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1404,47 +1447,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
